--- a/assets/testfiles/egenrollees.xlsx
+++ b/assets/testfiles/egenrollees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hccportal\assets\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F57D26-64DA-4B14-B0C0-C8644C2329B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5940E90-D0F9-4349-AEDB-E0C1FDC99BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C0328C2-4531-438D-9D08-F7DD4B308554}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>CDS 1101</t>
-  </si>
-  <si>
-    <t>Data Structures and Algorithms</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -57,19 +51,31 @@
   </si>
   <si>
     <t>enrolleeid</t>
+  </si>
+  <si>
+    <t>SF-CSE</t>
+  </si>
+  <si>
+    <t>System Fundamentals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DC22D-B4A9-4421-AC80-618FB0FD3213}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,67 +435,84 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>8024951</v>
+        <v>30232019</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>8024952</v>
+      <c r="D3" s="1">
+        <v>33572019</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>8024953</v>
+        <v>26592019</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>26802019</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
